--- a/PMSheets/PM17_01_19.xlsx
+++ b/PMSheets/PM17_01_19.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herob\project-proposal-walliserwagner\PMSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Admin\project-proposal-walliserwagner\PMSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{093FB3C3-48AD-4160-90C3-C58EFE6492F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6B640EB6-EE0E-435E-9FDC-40A5D3CA8E44}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{E0BBA045-77F2-490B-811A-0A4098F11621}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t xml:space="preserve">Task </t>
   </si>
@@ -57,6 +52,15 @@
   </si>
   <si>
     <t>Starting a database server</t>
+  </si>
+  <si>
+    <t>Walliser A.</t>
+  </si>
+  <si>
+    <t>replaceing current popup windows</t>
+  </si>
+  <si>
+    <t>fixing ui design where the add button covers the last items of the list</t>
   </si>
 </sst>
 </file>
@@ -408,15 +412,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10693F31-4188-408C-80D1-C6A02B0240FF}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
@@ -470,6 +474,34 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
